--- a/data/evaluation/evaluation_South_Winter_Carrots.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Carrots.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4020.920013380663</v>
+        <v>3971.731805016375</v>
       </c>
       <c r="C4" t="n">
-        <v>48249487.0512463</v>
+        <v>47895214.98076703</v>
       </c>
       <c r="D4" t="n">
-        <v>6946.185071767545</v>
+        <v>6920.636891267091</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5394618936956854</v>
+        <v>0.5428433967628941</v>
       </c>
     </row>
     <row r="5">
